--- a/Modelos em Python/0 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/0 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.003703228395500336</v>
+        <v>0.003606222384263312</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01183690850679654</v>
+        <v>0.01165784738818011</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02745040858418769</v>
+        <v>0.0285866363906205</v>
       </c>
     </row>
     <row r="12">
